--- a/data/trans_orig/MED_INDEX-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MED_INDEX-Estudios-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>2,24</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,29</t>
+          <t>1,6; 1,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,02</t>
+          <t>1,52; 1,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,52</t>
+          <t>1,7; 2,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 2,83</t>
+          <t>2,07; 2,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 2,95</t>
+          <t>2,54; 2,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 1,88</t>
+          <t>2,38; 2,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 2,54</t>
+          <t>1,91; 2,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 2,55</t>
+          <t>2,18; 2,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 1,69</t>
+          <t>2,13; 2,36</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,19</t>
+          <t>1,09; 1,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 0,97</t>
+          <t>0,44; 0,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,17</t>
+          <t>0,91; 1,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,4</t>
+          <t>1,19; 1,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,78</t>
+          <t>1,19; 2,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,24</t>
+          <t>1,14; 1,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,27</t>
+          <t>1,16; 1,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,42</t>
+          <t>0,89; 1,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,18</t>
+          <t>1,04; 1,14</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,88</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,83</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 0,98</t>
+          <t>0,64; 0,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 0,92</t>
+          <t>0,78; 0,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 0,77</t>
+          <t>0,64; 0,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 0,99</t>
+          <t>0,64; 0,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,09</t>
+          <t>0,98; 1,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 0,74</t>
+          <t>0,74; 0,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 0,95</t>
+          <t>0,66; 0,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 0,98</t>
+          <t>0,91; 1,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,73</t>
+          <t>0,72; 0,85</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>1,19</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,32</t>
+          <t>1,09; 1,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,09</t>
+          <t>0,6; 1,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,12</t>
+          <t>0,98; 1,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 1,58</t>
+          <t>1,22; 1,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 1,85</t>
+          <t>1,45; 2,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,23</t>
+          <t>1,28; 1,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 1,43</t>
+          <t>1,17; 1,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 1,51</t>
+          <t>1,11; 1,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,16</t>
+          <t>1,16; 1,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/MED_INDEX-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MED_INDEX-Estudios-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Indice de medicación 0-13</t>
+          <t>Indice de medicación 0-13 (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/MED_INDEX-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MED_INDEX-Estudios-trans_orig.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 1,95</t>
+          <t>1,55; 1,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 1,96</t>
+          <t>1,5; 1,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 2,35</t>
+          <t>2,09; 2,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 2,92</t>
+          <t>2,53; 2,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 2,14</t>
+          <t>1,91; 2,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 2,51</t>
+          <t>2,21; 2,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,23</t>
+          <t>1,01; 1,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,94</t>
+          <t>0,43; 0,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,33</t>
+          <t>1,14; 1,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,44</t>
+          <t>1,19; 2,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,25</t>
+          <t>1,1; 1,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,85</t>
+          <t>0,89; 1,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,8</t>
+          <t>0,6; 0,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 0,99</t>
+          <t>0,79; 1,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,77</t>
+          <t>0,62; 0,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,19</t>
+          <t>0,99; 1,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,76</t>
+          <t>0,64; 0,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -962,37 +962,37 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>1,14</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,2</t>
+          <t>1,01; 1,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,03</t>
+          <t>0,59; 1,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,33</t>
+          <t>1,16; 1,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,39</t>
+          <t>1,46; 2,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,25</t>
+          <t>1,1; 1,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,82</t>
+          <t>1,11; 1,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_orig/MED_INDEX-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MED_INDEX-Estudios-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>1,71</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>2,22</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>2,29</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>2,01</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,24</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,45; 1,9</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 2,02</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1,55; 1,89</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 1,96</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 2,02</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>2,47; 2,84</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 2,7</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>2,09; 2,35</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>2,53; 2,91</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 2,7</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>2,15; 2,44</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 2,36</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>1,91; 2,11</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 2,52</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>2,13; 2,36</t>
         </is>
       </c>
     </row>
@@ -742,19 +742,19 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,08</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
           <t>1,21</t>
@@ -762,7 +762,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -772,17 +772,17 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>1,14</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,82; 0,97</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 1,03</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>1,01; 1,15</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 0,94</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 1,03</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>1,14; 1,29</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 1,29</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>1,14; 1,28</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 2,59</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 1,29</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>1,0; 1,11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 1,14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>1,1; 1,19</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 1,9</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 1,14</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,68</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,68</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>0,68</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,78; 0,98</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 0,81</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,6; 0,76</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 1,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 0,81</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,01; 1,23</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 0,93</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,62; 0,75</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 1,2</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 0,93</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>0,92; 1,07</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 0,85</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0,64; 0,73</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 1,06</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,72; 0,85</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,05</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>1,21</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>1,14</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,93; 1,05</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 1,09</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,01; 1,11</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 1,02</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 1,09</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>1,4; 1,54</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 1,4</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1,16; 1,26</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 2,3</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 1,4</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>1,19; 1,28</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 1,23</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>1,1; 1,17</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,11; 1,74</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 1,23</t>
         </is>
       </c>
     </row>
